--- a/www/IndicatorsPerCountry/Cuba_GDPperCapita_TerritorialRef_1946_2012_CCode_192.xlsx
+++ b/www/IndicatorsPerCountry/Cuba_GDPperCapita_TerritorialRef_1946_2012_CCode_192.xlsx
@@ -333,13 +333,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Cuba_GDPperCapita_TerritorialRef_1946_2012_CCode_192.xlsx
+++ b/www/IndicatorsPerCountry/Cuba_GDPperCapita_TerritorialRef_1946_2012_CCode_192.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="119">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,274 +36,304 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>503.285407725</t>
+    <t>295</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>644.457009873</t>
-  </si>
-  <si>
-    <t>771.836909871</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>1827</t>
-  </si>
-  <si>
-    <t>1639</t>
-  </si>
-  <si>
-    <t>1505.34271566</t>
-  </si>
-  <si>
-    <t>1241.17647059</t>
-  </si>
-  <si>
-    <t>977.409638554</t>
-  </si>
-  <si>
-    <t>1037.68472906</t>
-  </si>
-  <si>
-    <t>1196.03577472</t>
-  </si>
-  <si>
-    <t>1371.23904288</t>
-  </si>
-  <si>
-    <t>1573.0939613</t>
-  </si>
-  <si>
-    <t>1779.43539132</t>
-  </si>
-  <si>
-    <t>1357.72357724</t>
-  </si>
-  <si>
-    <t>1410.94062708</t>
-  </si>
-  <si>
-    <t>1208.05957074</t>
-  </si>
-  <si>
-    <t>1598.70550162</t>
-  </si>
-  <si>
-    <t>1321.00340136</t>
-  </si>
-  <si>
-    <t>1441.51496129</t>
-  </si>
-  <si>
-    <t>1630.64549392</t>
-  </si>
-  <si>
-    <t>1775.95296026</t>
-  </si>
-  <si>
-    <t>1893.43123636</t>
-  </si>
-  <si>
-    <t>2120.53571429</t>
-  </si>
-  <si>
-    <t>1842.44495065</t>
-  </si>
-  <si>
-    <t>1958.22502785</t>
-  </si>
-  <si>
-    <t>2046.22564975</t>
-  </si>
-  <si>
-    <t>2175.5671487</t>
-  </si>
-  <si>
-    <t>2206.63248109</t>
-  </si>
-  <si>
-    <t>1900.37294432</t>
-  </si>
-  <si>
-    <t>1956.72219134</t>
-  </si>
-  <si>
-    <t>2004.98158156</t>
-  </si>
-  <si>
-    <t>2144.50068464</t>
-  </si>
-  <si>
-    <t>2406.35397919</t>
-  </si>
-  <si>
-    <t>2362.83645653</t>
-  </si>
-  <si>
-    <t>2066.83605554</t>
-  </si>
-  <si>
-    <t>2051.88118756</t>
-  </si>
-  <si>
-    <t>2050.04205214</t>
-  </si>
-  <si>
-    <t>2046.35190388</t>
-  </si>
-  <si>
-    <t>2031.58943552</t>
-  </si>
-  <si>
-    <t>2009.38615591</t>
-  </si>
-  <si>
-    <t>1988.36965724</t>
-  </si>
-  <si>
-    <t>2051.26509709</t>
-  </si>
-  <si>
-    <t>2247.60459458</t>
-  </si>
-  <si>
-    <t>2079.92990769</t>
-  </si>
-  <si>
-    <t>2020.88861149</t>
-  </si>
-  <si>
-    <t>1917.41625</t>
-  </si>
-  <si>
-    <t>2036.53560563</t>
-  </si>
-  <si>
-    <t>2095.60307215</t>
-  </si>
-  <si>
-    <t>2245.1064312</t>
-  </si>
-  <si>
-    <t>2324.08078519</t>
-  </si>
-  <si>
-    <t>2404.28655358</t>
-  </si>
-  <si>
-    <t>2438.61896085</t>
-  </si>
-  <si>
-    <t>2520.23802085</t>
-  </si>
-  <si>
-    <t>2649.67052203</t>
-  </si>
-  <si>
-    <t>2694.60306998</t>
-  </si>
-  <si>
-    <t>2644.46971012</t>
-  </si>
-  <si>
-    <t>2847.41260145</t>
-  </si>
-  <si>
-    <t>2890.11672427</t>
-  </si>
-  <si>
-    <t>2945.4508653</t>
-  </si>
-  <si>
-    <t>3022.45839182</t>
-  </si>
-  <si>
-    <t>3049.27478641</t>
-  </si>
-  <si>
-    <t>3027.79968454</t>
-  </si>
-  <si>
-    <t>2982.08867574</t>
-  </si>
-  <si>
-    <t>3010.091209</t>
-  </si>
-  <si>
-    <t>2990.7763259</t>
-  </si>
-  <si>
-    <t>2957.0056121</t>
-  </si>
-  <si>
-    <t>2589.85957968</t>
-  </si>
-  <si>
-    <t>2215.58174336</t>
-  </si>
-  <si>
-    <t>1848.05423981</t>
-  </si>
-  <si>
-    <t>1876.99990752</t>
-  </si>
-  <si>
-    <t>1931.52323976</t>
-  </si>
-  <si>
-    <t>2090.54252199</t>
-  </si>
-  <si>
-    <t>2151.66179693</t>
-  </si>
-  <si>
-    <t>2170.28820802</t>
-  </si>
-  <si>
-    <t>2306.5231159</t>
-  </si>
-  <si>
-    <t>2421.75400684</t>
-  </si>
-  <si>
-    <t>2482.43097885</t>
-  </si>
-  <si>
-    <t>2509.86342944</t>
-  </si>
-  <si>
-    <t>2595.00311194</t>
-  </si>
-  <si>
-    <t>2735.55988661</t>
-  </si>
-  <si>
-    <t>3031.78527282</t>
-  </si>
-  <si>
-    <t>3387.87185355</t>
-  </si>
-  <si>
-    <t>3624.97805863</t>
-  </si>
-  <si>
-    <t>3763.65546218</t>
+    <t>481</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1737</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1887</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>2069</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>2146</t>
+  </si>
+  <si>
+    <t>2249</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>2327</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2198</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>2638</t>
+  </si>
+  <si>
+    <t>2664</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>2611</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>2994</t>
+  </si>
+  <si>
+    <t>3068</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>3088</t>
+  </si>
+  <si>
+    <t>3185</t>
+  </si>
+  <si>
+    <t>3489</t>
+  </si>
+  <si>
+    <t>3229</t>
+  </si>
+  <si>
+    <t>3137</t>
+  </si>
+  <si>
+    <t>2976</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>3486</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>3733</t>
+  </si>
+  <si>
+    <t>3786</t>
+  </si>
+  <si>
+    <t>3913</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>4183</t>
+  </si>
+  <si>
+    <t>4106</t>
+  </si>
+  <si>
+    <t>4420</t>
+  </si>
+  <si>
+    <t>4487</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>5051</t>
+  </si>
+  <si>
+    <t>5120</t>
+  </si>
+  <si>
+    <t>5075</t>
+  </si>
+  <si>
+    <t>4887</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>4991</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>3982.26572455253</t>
+  </si>
+  <si>
+    <t>3399.9647245106</t>
+  </si>
+  <si>
+    <t>2657.46597569437</t>
+  </si>
+  <si>
+    <t>2683.09847980786</t>
+  </si>
+  <si>
+    <t>2860.75727072548</t>
+  </si>
+  <si>
+    <t>3249.63531743577</t>
+  </si>
+  <si>
+    <t>3425.56178435788</t>
+  </si>
+  <si>
+    <t>3415.54523948658</t>
+  </si>
+  <si>
+    <t>3623.5953800358</t>
+  </si>
+  <si>
+    <t>4009.3398762914</t>
+  </si>
+  <si>
+    <t>4231.32383338683</t>
+  </si>
+  <si>
+    <t>4369.04030104837</t>
+  </si>
+  <si>
+    <t>4506.67585407021</t>
+  </si>
+  <si>
+    <t>4561.01672175189</t>
+  </si>
+  <si>
+    <t>4713.70630431508</t>
+  </si>
+  <si>
+    <t>5416.14119161822</t>
+  </si>
+  <si>
+    <t>5635.68825410267</t>
+  </si>
+  <si>
+    <t>6004.89386182453</t>
+  </si>
+  <si>
+    <t>6248.30439273606</t>
+  </si>
+  <si>
+    <t>6578.19058371151</t>
+  </si>
+  <si>
+    <t>6928</t>
+  </si>
+  <si>
+    <t>7138</t>
+  </si>
+  <si>
+    <t>7379</t>
+  </si>
+  <si>
+    <t>7628</t>
+  </si>
+  <si>
+    <t>7889</t>
+  </si>
+  <si>
+    <t>8000</t>
   </si>
   <si>
     <t>Description</t>
@@ -418,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1800.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -435,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1801.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -452,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1802.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -469,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1803.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -486,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1804.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -503,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1805.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -520,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1806.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -537,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1807.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -554,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1808.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -571,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1809.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -588,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1810.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -605,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1811.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -622,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1812.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -639,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1813.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -656,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1814.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -673,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1815.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -690,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1816.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -707,7 +737,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1817.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -724,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1818.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -741,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1819.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -758,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1820.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -775,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1821.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -792,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1822.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -809,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1823.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -826,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1824.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -843,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1825.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -860,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1826.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -877,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1827.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -894,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1828.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -911,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1829.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -928,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1830.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -945,7 +975,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1831.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -962,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1832.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -979,7 +1009,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1833.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -996,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1834.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1013,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1835.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1030,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1836.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1047,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1837.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1064,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1838.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1081,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1839.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1098,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1840.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1115,7 +1145,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1841.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1132,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1842.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1149,7 +1179,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1843.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1166,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1844.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1183,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1845.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -1200,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1846.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1217,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1847.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1234,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1848.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1251,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1849.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1268,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1850.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1285,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1851.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -1302,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1852.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -1319,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1853.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -1336,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1854.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -1353,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1855.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -1370,7 +1400,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1856.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -1387,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1857.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -1404,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1858.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -1421,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1859.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
@@ -1438,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1860.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -1455,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1861.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -1472,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1862.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -1489,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1863.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -1506,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1864.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -1523,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1865.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -1540,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1866.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -1557,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1867.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -1574,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1868.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -1591,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1869.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -1608,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1870.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -1625,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1871.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -1642,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1872.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -1659,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1873.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -1676,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1874.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -1693,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1875.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -1710,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1876.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -1727,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1877.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
@@ -1744,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1878.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -1761,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1879.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -1778,10 +1808,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1880.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -1795,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1881.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -1812,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1882.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -1829,7 +1859,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1883.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -1846,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1884.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -1863,10 +1893,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1885.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -1880,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1886.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -1897,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1887.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -1914,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1888.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -1931,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1889.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -1948,10 +1978,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1890.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -1965,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1891.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -1982,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1892.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -1999,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1893.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -2016,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1894.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -2033,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1895.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -2050,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1896.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -2067,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1897.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -2084,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1898.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E100" t="s">
         <v>8</v>
@@ -2101,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1899.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -2118,10 +2148,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1900.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
@@ -2135,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1901.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -2152,10 +2182,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1902.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2169,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1903.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -2186,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1904.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -2203,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1905.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -2220,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1906.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -2237,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1907.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -2254,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1908.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -2271,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1909.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -2288,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1910.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -2305,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1911.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -2322,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1912.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E114" t="s">
         <v>8</v>
@@ -2339,10 +2369,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1913.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E115" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -2356,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1914.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -2373,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1915.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -2390,7 +2420,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1916.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -2407,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1917.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -2424,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1918.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -2441,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1919.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -2458,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1920.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -2475,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1921.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -2492,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1922.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -2509,7 +2539,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1923.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -2526,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1924.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -2543,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1925.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E127" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -2560,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1926.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -2577,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1927.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -2594,7 +2624,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1928.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -2611,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1929.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -2628,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1930.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
@@ -2645,10 +2675,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1931.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -2662,10 +2692,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1932.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E134" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
@@ -2679,10 +2709,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1933.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E135" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
@@ -2696,10 +2726,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1934.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -2713,10 +2743,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1935.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -2730,10 +2760,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1936.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -2747,10 +2777,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1937.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
@@ -2764,10 +2794,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1938.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E140" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -2781,10 +2811,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1939.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -2798,10 +2828,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1940.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -2815,10 +2845,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1941.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -2832,10 +2862,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1942.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145">
@@ -2849,10 +2879,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1943.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -2866,10 +2896,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1944.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147">
@@ -2883,10 +2913,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1945.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -2900,10 +2930,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1946.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
@@ -2917,10 +2947,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1947.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -2934,10 +2964,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1948.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E150" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151">
@@ -2951,10 +2981,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1949.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152">
@@ -2968,10 +2998,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1950.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
@@ -2985,10 +3015,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1951.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
@@ -3002,10 +3032,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1952.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
@@ -3019,10 +3049,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1953.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -3036,10 +3066,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1954.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -3053,10 +3083,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1955.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -3070,10 +3100,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1956.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E158" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -3087,10 +3117,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1957.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E159" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3104,10 +3134,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1958.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -3121,10 +3151,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1959.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -3138,10 +3168,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1960.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -3155,10 +3185,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1961.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E163" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -3172,10 +3202,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1962.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -3189,10 +3219,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1963.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E165" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
@@ -3206,10 +3236,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1964.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E166" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
@@ -3223,10 +3253,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1965.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E167" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -3240,10 +3270,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1966.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169">
@@ -3257,10 +3287,10 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1967.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -3274,10 +3304,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1968.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E170" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171">
@@ -3291,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1969.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
@@ -3308,10 +3338,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1970.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E172" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
@@ -3325,10 +3355,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1971.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
@@ -3342,10 +3372,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1972.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E174" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
@@ -3359,10 +3389,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1973.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -3376,10 +3406,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1974.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E176" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
@@ -3393,10 +3423,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1975.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E177" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -3410,10 +3440,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1976.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E178" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
@@ -3427,10 +3457,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1977.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E179" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -3444,10 +3474,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1978.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E180" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
@@ -3461,10 +3491,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1979.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E181" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
@@ -3478,10 +3508,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1980.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E182" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
@@ -3495,10 +3525,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1981.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E183" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
@@ -3512,10 +3542,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1982.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E184" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -3529,10 +3559,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1983.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E185" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
@@ -3546,10 +3576,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1984.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E186" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -3563,10 +3593,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1985.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E187" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
@@ -3580,10 +3610,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1986.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E188" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
@@ -3597,10 +3627,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1987.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E189" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
@@ -3614,10 +3644,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1988.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E190" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
@@ -3631,10 +3661,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1989.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E191" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
@@ -3648,10 +3678,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1990.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E192" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
@@ -3665,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1991.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E193" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -3682,10 +3712,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1992.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E194" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -3699,10 +3729,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1993.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E195" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -3716,10 +3746,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1994.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E196" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -3733,10 +3763,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1995.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E197" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
@@ -3750,10 +3780,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1996.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E198" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
@@ -3767,10 +3797,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1997.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E199" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
@@ -3784,10 +3814,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1998.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E200" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -3801,10 +3831,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1999.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E201" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
@@ -3818,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>2000.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E202" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203">
@@ -3835,10 +3865,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>2001.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E203" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204">
@@ -3852,10 +3882,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>2002.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E204" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205">
@@ -3869,10 +3899,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>2003.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E205" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -3886,10 +3916,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>2004.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E206" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207">
@@ -3903,10 +3933,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>2005.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E207" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -3920,10 +3950,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>2006.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E208" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209">
@@ -3937,10 +3967,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>2007.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E209" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -3954,10 +3984,2016 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1913.0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1915.0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1916.0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1941.0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1942.0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1943.0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1944.0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1945.0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1946.0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1947.0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1949.0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="E291" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E303" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="n">
         <v>2008.0</v>
       </c>
-      <c r="E210" t="s">
-        <v>96</v>
+      <c r="E320" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E327" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3975,50 +6011,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
